--- a/konig-spreadsheet/src/test/resources/awsAurora-transform.xlsx
+++ b/konig-spreadsheet/src/test/resources/awsAurora-transform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ontologies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Comment</t>
   </si>
@@ -105,9 +105,6 @@
     <t>unbounded</t>
   </si>
   <si>
-    <t xml:space="preserve">AwsAurora </t>
-  </si>
-  <si>
     <t>shape:AuroraProductShape</t>
   </si>
   <si>
@@ -117,16 +114,16 @@
     <t>Setting Value</t>
   </si>
   <si>
-    <t>awsAuroraHost</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>awsAuroraSchema</t>
   </si>
   <si>
     <t>schema:description</t>
+  </si>
+  <si>
+    <t>edwcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AwsAurora(awsAuroraHost:"devHost") </t>
   </si>
 </sst>
 </file>
@@ -28400,8 +28397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28411,10 +28408,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="8"/>
@@ -28449,20 +28446,13 @@
     </row>
     <row r="2" spans="1:32" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="3" spans="1:32" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
     </row>
@@ -31457,17 +31447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31514,11 +31505,11 @@
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -31670,7 +31661,7 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>23</v>
@@ -31714,7 +31705,7 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>25</v>
@@ -31758,10 +31749,10 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="13" t="s">

--- a/konig-spreadsheet/src/test/resources/awsAurora-transform.xlsx
+++ b/konig-spreadsheet/src/test/resources/awsAurora-transform.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bitbucket\Konig\konig-spreadsheet\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDW\Konig\konig-spreadsheet\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ontologies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Comment</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>schema:category</t>
-  </si>
-  <si>
-    <t>unbounded</t>
   </si>
   <si>
     <t>shape:AuroraProductShape</t>
@@ -28390,6 +28387,7 @@
     <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -28408,10 +28406,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="8"/>
@@ -28446,10 +28444,10 @@
     </row>
     <row r="2" spans="1:32" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -31440,6 +31438,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31447,7 +31446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -31505,11 +31504,11 @@
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -31585,6 +31584,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31592,8 +31592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31661,7 +31661,7 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>23</v>
@@ -31705,7 +31705,7 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>25</v>
@@ -31717,8 +31717,8 @@
       <c r="E3" s="25">
         <v>0</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>26</v>
+      <c r="F3" s="25">
+        <v>1</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -31749,10 +31749,10 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="13" t="s">
@@ -31761,8 +31761,8 @@
       <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>26</v>
+      <c r="F4" s="25">
+        <v>1</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
@@ -64875,5 +64875,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>